--- a/tables/testcasemknf.xlsx
+++ b/tables/testcasemknf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mark/Downloads/GodsOfProgs-main-3/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D35728-2950-4447-8002-64124E391601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DA22F9-1AE0-6D45-84B7-28F46EDB3C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>вывод</t>
   </si>
   <si>
-    <t>(~A1+~A3)</t>
-  </si>
-  <si>
     <t>0;0;1;0;0;1;0;1</t>
   </si>
   <si>
@@ -45,22 +42,25 @@
     <t>1;1;0;1</t>
   </si>
   <si>
-    <t>(~A1)</t>
-  </si>
-  <si>
     <t>1;0;0;0;0;1;1;0</t>
   </si>
   <si>
     <t>1;1;1;1;0;0;0;1</t>
   </si>
   <si>
-    <t>(~A1+A3)</t>
-  </si>
-  <si>
     <t>(A2+~A3)(~A1+~A2+~A3)</t>
   </si>
   <si>
-    <t>(A1+~A3)(~A1+A2)</t>
+    <t>(~A1+A3)(A1++~A3)(A1+A2)</t>
+  </si>
+  <si>
+    <t>(A1+A3)(~A1+A2+~A3)</t>
+  </si>
+  <si>
+    <t>(~A1+A2)</t>
+  </si>
+  <si>
+    <t>(~A1+A2)(~A1+A3)</t>
   </si>
 </sst>
 </file>
@@ -381,7 +381,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -400,42 +400,42 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
